--- a/main/report2.xlsx
+++ b/main/report2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>【序号】</t>
   </si>
@@ -74,6 +74,72 @@
   </si>
   <si>
     <t>【remark】</t>
+  </si>
+  <si>
+    <t>16482333964</t>
+  </si>
+  <si>
+    <t>16482333966</t>
+  </si>
+  <si>
+    <t>陈璐</t>
+  </si>
+  <si>
+    <t>陈思</t>
+  </si>
+  <si>
+    <t>CHEN</t>
+  </si>
+  <si>
+    <t>CHEN,SI</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Q46613</t>
+  </si>
+  <si>
+    <t>2021/02/20</t>
+  </si>
+  <si>
+    <t>2021/02/21</t>
+  </si>
+  <si>
+    <t>17750632</t>
+  </si>
+  <si>
+    <t>17750634</t>
+  </si>
+  <si>
+    <t>个人（中英文）</t>
+  </si>
+  <si>
+    <t>EH6595</t>
+  </si>
+  <si>
+    <t>EH6597</t>
+  </si>
+  <si>
+    <t>鼻</t>
+  </si>
+  <si>
+    <t>2022-06-09 06:12:56</t>
+  </si>
+  <si>
+    <t>丽宝生医</t>
+  </si>
+  <si>
+    <t>MA-6000</t>
+  </si>
+  <si>
+    <t>陰性</t>
   </si>
 </sst>
 </file>
@@ -431,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,6 +565,112 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
